--- a/biology/Botanique/Convolvulus_arvensis/Convolvulus_arvensis.xlsx
+++ b/biology/Botanique/Convolvulus_arvensis/Convolvulus_arvensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus arvensis
 Le Liseron des champs (Convolvulus arvensis) est une plante herbacée vivace de la famille des Convolvulacées.
@@ -512,12 +524,49 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Convolvulus arvensis a été décrite par le naturaliste suédois Carl von Linné en 1753[4].
-Le Liseron des champs est vulgairement dénommé Petit liset, Campanette, vrillée, clochette champêtre, robe de la Vierge[5].
-Synonymie
-Il existe pour cette espèce de très nombreux synonymes [6]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Convolvulus arvensis a été décrite par le naturaliste suédois Carl von Linné en 1753.
+Le Liseron des champs est vulgairement dénommé Petit liset, Campanette, vrillée, clochette champêtre, robe de la Vierge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Convolvulus_arvensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convolvulus_arvensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il existe pour cette espèce de très nombreux synonymes :
 Convolvulus ambigens House
 Convolvulus arvensis f. purpurascens T.Tacik
 Convolvulus arvensis f. rehmanii T.Tacik
@@ -551,39 +600,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Convolvulus_arvensis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Convolvulus_arvensis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace rampante ou grimpante, atteignant 2 mètres au maximum. Les feuilles sont alternes, oblongues, pétiolées et sagittées. Les fleurs sont solitaires, éphémères (elles ne sont ouvertes souvent qu'une journée), blanches ou roses rayées de blanc, et faiblement parfumées. Les fruits sont des capsules arrondies. On trouve le liseron des champs en terrains cultivés ou vagues, dans les gazons tondus à ras et au bord des chemins et des routes[7].
-C'est une adventice qui peut entrer en compétition pour la lumière avec les plantes qu'elle prend pour support[8]. Elle se propage rapidement par voie aérienne via la dissémination de ses graines par les oiseaux[9].La graine peut rester en dormance dans le sol, mais la dormance est levée si le sol est compacté et riche en azote[9],[10].
-Elle est cependant utilisée en jardinage écologique pour attirer les syrphes et limiter ainsi les populations de pucerons.[réf. souhaitée] Les liserons sont par leur racine un des moyens de maintenir les bonnes mycorhizes dans les parcelles potagères pendant l'hiver, le labour et le sol nu stérilisant le lieu.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -605,12 +621,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace rampante ou grimpante, atteignant 2 mètres au maximum. Les feuilles sont alternes, oblongues, pétiolées et sagittées. Les fleurs sont solitaires, éphémères (elles ne sont ouvertes souvent qu'une journée), blanches ou roses rayées de blanc, et faiblement parfumées. Les fruits sont des capsules arrondies. On trouve le liseron des champs en terrains cultivés ou vagues, dans les gazons tondus à ras et au bord des chemins et des routes.
+C'est une adventice qui peut entrer en compétition pour la lumière avec les plantes qu'elle prend pour support. Elle se propage rapidement par voie aérienne via la dissémination de ses graines par les oiseaux.La graine peut rester en dormance dans le sol, mais la dormance est levée si le sol est compacté et riche en azote,.
+Elle est cependant utilisée en jardinage écologique pour attirer les syrphes et limiter ainsi les populations de pucerons.[réf. souhaitée] Les liserons sont par leur racine un des moyens de maintenir les bonnes mycorhizes dans les parcelles potagères pendant l'hiver, le labour et le sol nu stérilisant le lieu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Convolvulus_arvensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convolvulus_arvensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En herboristerie, le Liseron des champs est utilisé pour ses propriétés laxatives et purgatives énergiques de sa racine récoltée pendant les mois de juillet et d'août. On prépare à cet effet un sirop purgatif[11]. Ses feuilles infusées ont les mêmes propriétés laxatives[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En herboristerie, le Liseron des champs est utilisé pour ses propriétés laxatives et purgatives énergiques de sa racine récoltée pendant les mois de juillet et d'août. On prépare à cet effet un sirop purgatif. Ses feuilles infusées ont les mêmes propriétés laxatives.
 			Liseron des champs : habitus.
 			Fleur, avec des trombidions, forme adulte des aoûtats.
 			Capsules et graines(Muséum de Toulouse).
@@ -619,31 +672,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Convolvulus_arvensis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Convolvulus_arvensis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : blanc, rose
@@ -661,33 +716,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Convolvulus_arvensis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Convolvulus_arvensis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (12 septembre 2020)[13] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Convolvulus arvensis var. angustatus Ledeb.
 variété Convolvulus arvensis var. crassifolius Choisy
 variété Convolvulus arvensis var. hastulatus Meisn.
